--- a/machine code example old version (add, addi, sub) （for Jihao）.xlsx
+++ b/machine code example old version (add, addi, sub) （for Jihao）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kaust-my.sharepoint.com/personal/yangk0a_kaust_edu_sa/Documents/CS 294V System Architecture and Performance/course project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihaoxin/Documents/GitHub/Tinker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{80C8D4EB-6898-441B-99A7-BC035DBFDDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F74139C-CE00-4AD0-B385-5B3B8FE414B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40842E7D-9F29-FA4A-9F76-3F76012168D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="491" activeTab="1" xr2:uid="{307FB8FA-991E-46BD-9566-A16C12FF64AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" tabRatio="491" xr2:uid="{307FB8FA-991E-46BD-9566-A16C12FF64AB}"/>
   </bookViews>
   <sheets>
     <sheet name="sub and addi" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="135">
   <si>
     <t>latch of rd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,7 +583,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -606,7 +606,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -644,14 +644,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -659,7 +659,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -667,7 +667,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -803,6 +803,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -833,24 +848,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1162,105 +1162,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44691E38-30DF-411C-B13D-7557B62A3905}">
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AV25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AR15" sqref="AR15"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AT22" sqref="AT22:AU25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.1640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="4" customWidth="1"/>
-    <col min="12" max="13" width="8.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.1640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.25" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="13.125" style="4" customWidth="1"/>
-    <col min="19" max="20" width="8.25" style="4" customWidth="1"/>
-    <col min="21" max="21" width="28.125" style="4" customWidth="1"/>
-    <col min="22" max="28" width="8.25" style="4" customWidth="1"/>
-    <col min="29" max="29" width="27.25" style="4" customWidth="1"/>
-    <col min="30" max="42" width="8.25" style="4" customWidth="1"/>
-    <col min="43" max="43" width="29.375" style="4" customWidth="1"/>
-    <col min="44" max="44" width="8.25" style="4" customWidth="1"/>
-    <col min="45" max="45" width="18.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.1640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="4" customWidth="1"/>
+    <col min="19" max="20" width="8.1640625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="28.1640625" style="4" customWidth="1"/>
+    <col min="22" max="28" width="8.1640625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="27.1640625" style="4" customWidth="1"/>
+    <col min="30" max="42" width="8.1640625" style="4" customWidth="1"/>
+    <col min="43" max="43" width="29.33203125" style="4" customWidth="1"/>
+    <col min="44" max="44" width="8.1640625" style="4" customWidth="1"/>
+    <col min="45" max="45" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="64.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="10" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="6" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="6" t="s">
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="6" t="s">
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="6" t="s">
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="8"/>
+      <c r="AR1" s="13"/>
       <c r="AS1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>90</v>
@@ -1394,12 +1397,18 @@
       <c r="AS2" s="1">
         <v>2</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="1">
         <f>SUM(C2:AS2)</f>
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>91</v>
@@ -1533,11 +1542,17 @@
       <c r="AS3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AT3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV3" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>92</v>
@@ -1671,12 +1686,18 @@
       <c r="AS4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AT4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV4" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>121</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1811,13 +1832,19 @@
       <c r="AS5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="1" t="str">
-        <f t="shared" ref="AT5:AT6" si="0">_xlfn.CONCAT(C5:AS5)</f>
+      <c r="AT5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV5" s="1" t="str">
+        <f>_xlfn.CONCAT(C5:AS5)</f>
         <v>0010XXXX0010XX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
         <v>124</v>
       </c>
@@ -1950,13 +1977,19 @@
       <c r="AS6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT6" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="AT6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV6" s="1" t="str">
+        <f>_xlfn.CONCAT(C6:AS6)</f>
         <v>0000XXXXXXXXXX100100XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
         <v>95</v>
       </c>
@@ -2089,13 +2122,19 @@
       <c r="AS7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT7" s="1" t="str">
+      <c r="AT7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV7" s="1" t="str">
         <f>_xlfn.CONCAT(C7:AS7)</f>
         <v>0000XXXXXXXXXX00001000XX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
         <v>96</v>
       </c>
@@ -2228,13 +2267,19 @@
       <c r="AS8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT8" s="1" t="str">
-        <f t="shared" ref="AT8:AT25" si="1">_xlfn.CONCAT(C8:AS8)</f>
+      <c r="AT8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV8" s="1" t="str">
+        <f t="shared" ref="AV8:AV25" si="0">_xlfn.CONCAT(C8:AS8)</f>
         <v>0000XXXXXXXXXX000000XXXX1001100000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
         <v>97</v>
       </c>
@@ -2367,13 +2412,19 @@
       <c r="AS9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT9" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV9" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>0100XXXXXX01XX000000XXXX00XXXX0000001XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
         <v>98</v>
       </c>
@@ -2506,13 +2557,19 @@
       <c r="AS10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT10" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV10" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX100100XXXX00XXXX00000000000000000000000101100XX</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
         <v>99</v>
       </c>
@@ -2645,13 +2702,19 @@
       <c r="AS11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AT11" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV11" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX000010001000XXXX0000000XXXX0000000000000XXXX101</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
         <v>100</v>
       </c>
@@ -2784,13 +2847,19 @@
       <c r="AS12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT12" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV12" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX000000XXXX110000000000000000000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
         <v>119</v>
       </c>
@@ -2923,13 +2992,19 @@
       <c r="AS13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT13" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV13" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX000000XXXX00XXXX1000000XXXX1000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
       <c r="B14" s="3" t="s">
         <v>120</v>
       </c>
@@ -3062,13 +3137,19 @@
       <c r="AS14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT14" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV14" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX000000XXXX00XXXX00000000001000000100000000000XX</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
       <c r="B15" s="3" t="s">
         <v>125</v>
       </c>
@@ -3201,13 +3282,19 @@
       <c r="AS15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AT15" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV15" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>1000XX01XX1100000000XXXX00XXXX0000000XXXX0000000000000XXXX100</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
       <c r="B16" s="3" t="s">
         <v>126</v>
       </c>
@@ -3340,12 +3427,18 @@
       <c r="AS16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT16" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV16" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX111100XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3391,13 +3484,15 @@
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
-      <c r="AT17" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="1" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3532,13 +3627,19 @@
       <c r="AS18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT18" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV18" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>1000XX00XX00XX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>94</v>
       </c>
@@ -3671,13 +3772,19 @@
       <c r="AS19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT19" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV19" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX100100XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>95</v>
       </c>
@@ -3810,13 +3917,19 @@
       <c r="AS20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT20" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV20" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>000101XXXXXXXX000010000100XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
         <v>96</v>
       </c>
@@ -3949,13 +4062,19 @@
       <c r="AS21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT21" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV21" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX000000XXXX110000000000000000000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
       <c r="B22" s="3" t="s">
         <v>97</v>
       </c>
@@ -4088,13 +4207,19 @@
       <c r="AS22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT22" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV22" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX000000XXXX00XXXX1000000XXXX1000000000000XXXX0XX</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
       <c r="B23" s="3" t="s">
         <v>98</v>
       </c>
@@ -4227,13 +4352,19 @@
       <c r="AS23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT23" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV23" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX000000100000000000XX</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
       <c r="B24" s="3" t="s">
         <v>99</v>
       </c>
@@ -4366,13 +4497,19 @@
       <c r="AS24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AT24" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV24" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>1000XX01XX1100000000XXXX00XXXX0000000XXXX0000000000000XXXX100</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
       <c r="B25" s="3" t="s">
         <v>100</v>
       </c>
@@ -4505,8 +4642,14 @@
       <c r="AS25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT25" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AT25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV25" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX111100XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
@@ -4531,101 +4674,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1194F73-607A-4A3A-8DF3-AC05CA424806}">
   <dimension ref="A1:AV19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AV23" sqref="AV23"/>
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1:AU1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.1640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="4" customWidth="1"/>
-    <col min="12" max="13" width="8.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.1640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.25" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="13.125" style="4" customWidth="1"/>
-    <col min="19" max="20" width="8.25" style="4" customWidth="1"/>
-    <col min="21" max="21" width="28.125" style="4" customWidth="1"/>
-    <col min="22" max="28" width="8.25" style="4" customWidth="1"/>
-    <col min="29" max="29" width="27.25" style="4" customWidth="1"/>
-    <col min="30" max="42" width="8.25" style="4" customWidth="1"/>
-    <col min="43" max="43" width="29.375" style="4" customWidth="1"/>
-    <col min="44" max="44" width="8.25" style="4" customWidth="1"/>
-    <col min="45" max="45" width="18.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="74.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.1640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="4" customWidth="1"/>
+    <col min="19" max="20" width="8.1640625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="28.1640625" style="4" customWidth="1"/>
+    <col min="22" max="28" width="8.1640625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="27.1640625" style="4" customWidth="1"/>
+    <col min="30" max="42" width="8.1640625" style="4" customWidth="1"/>
+    <col min="43" max="43" width="29.33203125" style="4" customWidth="1"/>
+    <col min="44" max="44" width="8.1640625" style="4" customWidth="1"/>
+    <col min="45" max="45" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="74.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="10" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="6" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="6" t="s">
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="6" t="s">
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="6" t="s">
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="8"/>
+      <c r="AR1" s="13"/>
       <c r="AS1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
       <c r="AV1" s="3" t="s">
         <v>102</v>
       </c>
@@ -4764,10 +4907,10 @@
       <c r="AS2" s="1">
         <v>2</v>
       </c>
-      <c r="AT2" s="17">
+      <c r="AT2" s="7">
         <v>1</v>
       </c>
-      <c r="AU2" s="17">
+      <c r="AU2" s="7">
         <v>1</v>
       </c>
       <c r="AV2" s="1">
@@ -4775,7 +4918,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="114" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>91</v>
@@ -4909,10 +5052,10 @@
       <c r="AS3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AT3" s="18" t="s">
+      <c r="AT3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AU3" s="18" t="s">
+      <c r="AU3" s="8" t="s">
         <v>132</v>
       </c>
       <c r="AV3" s="2" t="s">
@@ -5053,10 +5196,10 @@
       <c r="AS4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AT4" s="19" t="s">
+      <c r="AT4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="AU4" s="19" t="s">
+      <c r="AU4" s="9" t="s">
         <v>134</v>
       </c>
       <c r="AV4" s="1" t="s">
@@ -5109,15 +5252,15 @@
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
       <c r="AV5" s="1" t="str">
-        <f>_xlfn.CONCAT(C5:AU5)</f>
+        <f t="shared" ref="AV5:AV13" si="0">_xlfn.CONCAT(C5:AU5)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -5252,19 +5395,19 @@
       <c r="AS6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AT6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="AV6" s="1" t="str">
-        <f>_xlfn.CONCAT(C6:AU6)</f>
+        <f t="shared" si="0"/>
         <v>1000XX00XX00XX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX00</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>94</v>
       </c>
@@ -5397,19 +5540,19 @@
       <c r="AS7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU7" s="19" t="s">
+      <c r="AT7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="AV7" s="1" t="str">
-        <f>_xlfn.CONCAT(C7:AU7)</f>
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX100100XXXX00XXXX0000000XXXX0000000000000XXXX0XX00</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>95</v>
       </c>
@@ -5542,19 +5685,19 @@
       <c r="AS8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU8" s="19" t="s">
+      <c r="AT8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AV8" s="1" t="str">
-        <f>_xlfn.CONCAT(C8:AU8)</f>
+        <f t="shared" si="0"/>
         <v>000101XXXXXXXX000010000100XXXX0000000XXXX0000000000000XXXX0XX00</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>96</v>
       </c>
@@ -5687,19 +5830,19 @@
       <c r="AS9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AT9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AV9" s="1" t="str">
-        <f>_xlfn.CONCAT(C9:AU9)</f>
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX000000XXXX110000000000000000000000000000XXXX0XX00</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>97</v>
       </c>
@@ -5832,19 +5975,19 @@
       <c r="AS10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU10" s="19" t="s">
+      <c r="AT10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AV10" s="1" t="str">
-        <f>_xlfn.CONCAT(C10:AU10)</f>
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX000000XXXX00XXXX1000000XXXX1000000000000XXXX0XX00</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
@@ -5977,19 +6120,19 @@
       <c r="AS11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU11" s="19" t="s">
+      <c r="AT11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AV11" s="1" t="str">
-        <f>_xlfn.CONCAT(C11:AU11)</f>
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX000000100000000000XX00</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>99</v>
       </c>
@@ -6122,19 +6265,19 @@
       <c r="AS12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AT12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU12" s="19" t="s">
+      <c r="AT12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AV12" s="1" t="str">
-        <f>_xlfn.CONCAT(C12:AU12)</f>
+        <f t="shared" si="0"/>
         <v>1000XX01XX1100000000XXXX00XXXX0000000XXXX0000000000000XXXX10000</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>100</v>
       </c>
@@ -6267,19 +6410,19 @@
       <c r="AS13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU13" s="19" t="s">
+      <c r="AT13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AV13" s="1" t="str">
-        <f>_xlfn.CONCAT(C13:AU13)</f>
+        <f t="shared" si="0"/>
         <v>0000XXXXXXXXXX111100XXXX00XXXX0000000XXXX0000000000000XXXX0XX00</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -6414,10 +6557,10 @@
       <c r="AS15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU15" s="19" t="s">
+      <c r="AT15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="AV15" s="1" t="str">
@@ -6426,7 +6569,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>94</v>
       </c>
@@ -6559,10 +6702,10 @@
       <c r="AS16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU16" s="19" t="s">
+      <c r="AT16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="AV16" s="1" t="str">
@@ -6571,7 +6714,7 @@
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>95</v>
       </c>
@@ -6704,10 +6847,10 @@
       <c r="AS17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT17" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU17" s="19" t="s">
+      <c r="AT17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AV17" s="1" t="str">
@@ -6716,7 +6859,7 @@
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>96</v>
       </c>
@@ -6849,10 +6992,10 @@
       <c r="AS18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU18" s="19" t="s">
+      <c r="AT18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AV18" s="1" t="str">
@@ -6861,7 +7004,7 @@
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>97</v>
       </c>
@@ -6994,10 +7137,10 @@
       <c r="AS19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT19" s="19" t="s">
+      <c r="AT19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AU19" s="19" t="s">
+      <c r="AU19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="AV19" s="1" t="str">
